--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\Eddie's Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449845A8-32DD-43A5-B592-213422EF373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6605FDF4-8D46-4787-A2B7-EF3E0127B1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredients" sheetId="1" r:id="rId1"/>
     <sheet name="Portions, Sizes, and Weights" sheetId="2" r:id="rId2"/>
+    <sheet name="Cocktails" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="663">
   <si>
     <t>beef tips</t>
   </si>
@@ -1752,6 +1753,264 @@
   </si>
   <si>
     <t>Answer 3</t>
+  </si>
+  <si>
+    <t>Cocktail</t>
+  </si>
+  <si>
+    <t>Berry White</t>
+  </si>
+  <si>
+    <t>Black Cherry Gin and Tonic</t>
+  </si>
+  <si>
+    <t>Blueberry Mojito</t>
+  </si>
+  <si>
+    <t>Burnt Orange Manhattan</t>
+  </si>
+  <si>
+    <t>Dragon Juice</t>
+  </si>
+  <si>
+    <t>Mosquito!</t>
+  </si>
+  <si>
+    <t>New Fashioned</t>
+  </si>
+  <si>
+    <t>Parisian Lemon Drop</t>
+  </si>
+  <si>
+    <t>Rose Punch</t>
+  </si>
+  <si>
+    <t>Ruby Red Spritz</t>
+  </si>
+  <si>
+    <t>Rye Tiki</t>
+  </si>
+  <si>
+    <t>Spiced Cherry Mule</t>
+  </si>
+  <si>
+    <t>Woodford Reserve Old Fashioned</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>martini glass</t>
+  </si>
+  <si>
+    <t>rocks glass</t>
+  </si>
+  <si>
+    <t>highball glass</t>
+  </si>
+  <si>
+    <t>copper mug</t>
+  </si>
+  <si>
+    <t>1 oz smirnoff strawberry vodka</t>
+  </si>
+  <si>
+    <t>1 oz svedka raspberry vodka</t>
+  </si>
+  <si>
+    <t>1 oz triple sec</t>
+  </si>
+  <si>
+    <t>0.5 oz fresh lime juice</t>
+  </si>
+  <si>
+    <t>splash simple syrup</t>
+  </si>
+  <si>
+    <t>1 blueberry</t>
+  </si>
+  <si>
+    <t>1 strawberry</t>
+  </si>
+  <si>
+    <t>1 raspberry</t>
+  </si>
+  <si>
+    <t>2 oz aviation american gin</t>
+  </si>
+  <si>
+    <t>0.75 oz liquid alchemist grenadine</t>
+  </si>
+  <si>
+    <t>3 dashes angostura aromatic bitters</t>
+  </si>
+  <si>
+    <t>3 oz fever tree tonic water</t>
+  </si>
+  <si>
+    <t>4-5 fresh mint leaves</t>
+  </si>
+  <si>
+    <t>1 lime wheel</t>
+  </si>
+  <si>
+    <t>2 oz real blueberry puree</t>
+  </si>
+  <si>
+    <t>0.5 oz simple syrup</t>
+  </si>
+  <si>
+    <t>3 lime wedges</t>
+  </si>
+  <si>
+    <t>2 oz the real mccoy 3 year rum</t>
+  </si>
+  <si>
+    <t>1.5 oz sprite</t>
+  </si>
+  <si>
+    <t>1.5 oz soda water</t>
+  </si>
+  <si>
+    <t>0.5 oz nolly prat vermouth</t>
+  </si>
+  <si>
+    <t>3 dashes orange bitters</t>
+  </si>
+  <si>
+    <t>1 bordeaux cherry</t>
+  </si>
+  <si>
+    <t>2 oz teremana blanco tequila</t>
+  </si>
+  <si>
+    <t>0.75 oz real prickly pear syrup</t>
+  </si>
+  <si>
+    <t>1 oz fresh lime juice</t>
+  </si>
+  <si>
+    <t>1/2 tajin classico seasoning rim</t>
+  </si>
+  <si>
+    <t>2 raspberries</t>
+  </si>
+  <si>
+    <t>1.5 oz orange juice</t>
+  </si>
+  <si>
+    <t>2 oz espolon blanco tequila</t>
+  </si>
+  <si>
+    <t>0.75 oz grapefruit juice</t>
+  </si>
+  <si>
+    <t>0.5 oz lime juice</t>
+  </si>
+  <si>
+    <t>1 oz jarritos grapefruit soda</t>
+  </si>
+  <si>
+    <t>tajin rim</t>
+  </si>
+  <si>
+    <t>1 grapefruit wedge</t>
+  </si>
+  <si>
+    <t>2 oz high west american prairie bourbon</t>
+  </si>
+  <si>
+    <t>1 oz simple syrup</t>
+  </si>
+  <si>
+    <t>0.75 oz st germain</t>
+  </si>
+  <si>
+    <t>1 derined orange slice</t>
+  </si>
+  <si>
+    <t>1.5 oz grey goose citron</t>
+  </si>
+  <si>
+    <t>0.75 oz lemon juice</t>
+  </si>
+  <si>
+    <t>1/2 sugar rim</t>
+  </si>
+  <si>
+    <t>1 lemon wheel</t>
+  </si>
+  <si>
+    <t>1.5 oz deep eddy ruby red vodka</t>
+  </si>
+  <si>
+    <t>1 oz prosecco</t>
+  </si>
+  <si>
+    <t>2 oz templeton rye</t>
+  </si>
+  <si>
+    <t>0.5 oz real guava puree</t>
+  </si>
+  <si>
+    <t>0.5 oz real passion fruit puree</t>
+  </si>
+  <si>
+    <t>0.5 oz cointreau</t>
+  </si>
+  <si>
+    <t>0.75 oz fresh lemon juice</t>
+  </si>
+  <si>
+    <t>0.5 oz real peach puree</t>
+  </si>
+  <si>
+    <t>0.75 oz cockburn's fine ruby port</t>
+  </si>
+  <si>
+    <t>1.5 oz four rose's bourbon</t>
+  </si>
+  <si>
+    <t>1.5 oz absolut lime vodka</t>
+  </si>
+  <si>
+    <t>1.5 oz black cherry puree</t>
+  </si>
+  <si>
+    <t>0.25 oz domaine de canton</t>
+  </si>
+  <si>
+    <t>1 oz cranberry juice</t>
+  </si>
+  <si>
+    <t>ginger beer to fill</t>
+  </si>
+  <si>
+    <t>1 lime wedge</t>
+  </si>
+  <si>
+    <t>1 mint sprig</t>
+  </si>
+  <si>
+    <t>1 rosemary sprig</t>
+  </si>
+  <si>
+    <t>1 derinded orange slice</t>
+  </si>
+  <si>
+    <t>0.25 oz aperol</t>
+  </si>
+  <si>
+    <t>2 dashes fee brother bitters</t>
+  </si>
+  <si>
+    <t>2 oz woodford reserve</t>
+  </si>
+  <si>
+    <t>2.5 oz knob creek reserve bourbon</t>
+  </si>
+  <si>
+    <t>1 flamed orange coin</t>
   </si>
 </sst>
 </file>
@@ -2340,6 +2599,26 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{351CC1F7-1F68-4AC7-90B2-EAC2A7385303}" name="Table3" displayName="Table3" ref="A1:K14" totalsRowShown="0">
+  <autoFilter ref="A1:K14" xr:uid="{351CC1F7-1F68-4AC7-90B2-EAC2A7385303}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{03CDF0C4-BB18-4442-A86F-C4F5D50EF1CA}" name="Cocktail"/>
+    <tableColumn id="2" xr3:uid="{CE982ECB-A134-43B3-BFB1-50470AEF63EA}" name="Glass"/>
+    <tableColumn id="3" xr3:uid="{039E2B1C-04E7-4CB1-85B8-FD994AD2AA8B}" name="Ingredient 1"/>
+    <tableColumn id="4" xr3:uid="{A885F342-CAC4-4EC4-9483-73FC0B201F0C}" name="Ingredient 2"/>
+    <tableColumn id="5" xr3:uid="{CC396AA0-4D00-4DAB-B389-6D0DD645F607}" name="Ingredient 3"/>
+    <tableColumn id="6" xr3:uid="{C8D2B94A-4902-4D0D-BA56-0164612E5EFB}" name="Ingredient 4"/>
+    <tableColumn id="7" xr3:uid="{893A20EB-50A9-41BE-B4DD-04BA0C3006BE}" name="Ingredient 5"/>
+    <tableColumn id="8" xr3:uid="{FF05CB96-C760-4070-BDFC-F843B24091F4}" name="Ingredient 6"/>
+    <tableColumn id="9" xr3:uid="{6ED87DF7-10C3-448A-BA1B-8D9C339B9E84}" name="Ingredient 7"/>
+    <tableColumn id="10" xr3:uid="{FAB0DB27-F247-447F-ADC3-2CB037497E57}" name="Ingredient 8"/>
+    <tableColumn id="11" xr3:uid="{1F1D22DA-2A00-492F-9B92-611A8D57466C}" name="Ingredient 9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5555,7 +5834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5419896B-67F4-481D-92B4-633D522E8B34}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -6173,4 +6452,410 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E1FEB5-A9E2-435C-A83B-9237E8992AB2}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G2" t="s">
+        <v>600</v>
+      </c>
+      <c r="H2" t="s">
+        <v>601</v>
+      </c>
+      <c r="I2" t="s">
+        <v>602</v>
+      </c>
+      <c r="J2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F3" t="s">
+        <v>607</v>
+      </c>
+      <c r="G3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H4" t="s">
+        <v>614</v>
+      </c>
+      <c r="I4" t="s">
+        <v>615</v>
+      </c>
+      <c r="J4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F5" t="s">
+        <v>662</v>
+      </c>
+      <c r="G5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E6" t="s">
+        <v>621</v>
+      </c>
+      <c r="F6" t="s">
+        <v>622</v>
+      </c>
+      <c r="G6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D7" t="s">
+        <v>624</v>
+      </c>
+      <c r="E7" t="s">
+        <v>626</v>
+      </c>
+      <c r="F7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G7" t="s">
+        <v>611</v>
+      </c>
+      <c r="H7" t="s">
+        <v>628</v>
+      </c>
+      <c r="I7" t="s">
+        <v>629</v>
+      </c>
+      <c r="J7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B8" t="s">
+        <v>593</v>
+      </c>
+      <c r="C8" t="s">
+        <v>631</v>
+      </c>
+      <c r="D8" t="s">
+        <v>632</v>
+      </c>
+      <c r="E8" t="s">
+        <v>633</v>
+      </c>
+      <c r="F8" t="s">
+        <v>634</v>
+      </c>
+      <c r="G8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C9" t="s">
+        <v>635</v>
+      </c>
+      <c r="D9" t="s">
+        <v>633</v>
+      </c>
+      <c r="E9" t="s">
+        <v>611</v>
+      </c>
+      <c r="F9" t="s">
+        <v>636</v>
+      </c>
+      <c r="G9" t="s">
+        <v>637</v>
+      </c>
+      <c r="H9" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D10" t="s">
+        <v>644</v>
+      </c>
+      <c r="E10" t="s">
+        <v>646</v>
+      </c>
+      <c r="F10" t="s">
+        <v>645</v>
+      </c>
+      <c r="G10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C11" t="s">
+        <v>639</v>
+      </c>
+      <c r="D11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E11" t="s">
+        <v>636</v>
+      </c>
+      <c r="F11" t="s">
+        <v>640</v>
+      </c>
+      <c r="G11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>588</v>
+      </c>
+      <c r="B12" t="s">
+        <v>593</v>
+      </c>
+      <c r="C12" t="s">
+        <v>641</v>
+      </c>
+      <c r="D12" t="s">
+        <v>642</v>
+      </c>
+      <c r="E12" t="s">
+        <v>643</v>
+      </c>
+      <c r="F12" t="s">
+        <v>621</v>
+      </c>
+      <c r="G12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>589</v>
+      </c>
+      <c r="B13" t="s">
+        <v>595</v>
+      </c>
+      <c r="C13" t="s">
+        <v>649</v>
+      </c>
+      <c r="D13" t="s">
+        <v>650</v>
+      </c>
+      <c r="E13" t="s">
+        <v>651</v>
+      </c>
+      <c r="F13" t="s">
+        <v>652</v>
+      </c>
+      <c r="G13" t="s">
+        <v>653</v>
+      </c>
+      <c r="H13" t="s">
+        <v>654</v>
+      </c>
+      <c r="I13" t="s">
+        <v>655</v>
+      </c>
+      <c r="J13" t="s">
+        <v>656</v>
+      </c>
+      <c r="K13" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C14" t="s">
+        <v>658</v>
+      </c>
+      <c r="D14" t="s">
+        <v>659</v>
+      </c>
+      <c r="E14" t="s">
+        <v>660</v>
+      </c>
+      <c r="F14" t="s">
+        <v>657</v>
+      </c>
+      <c r="G14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\Eddie's Quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben\OneDrive\Desktop\Eddie Merlot's\Eddie's Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6605FDF4-8D46-4787-A2B7-EF3E0127B1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B2B3D9-8154-4696-8ACB-B2DDDBFFD268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingredients" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="664">
   <si>
     <t>beef tips</t>
   </si>
@@ -45,9 +45,6 @@
     <t>ranch dressing</t>
   </si>
   <si>
-    <t>ranch</t>
-  </si>
-  <si>
     <t>creamy herb dressing</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>gargonzola cheese crumbles</t>
   </si>
   <si>
-    <t>gargonzola</t>
-  </si>
-  <si>
     <t>diced cherrywood smoked bacon</t>
   </si>
   <si>
@@ -825,267 +819,6 @@
     <t>asparagus spears</t>
   </si>
   <si>
-    <t>bearnaise</t>
-  </si>
-  <si>
-    <t>potstick</t>
-  </si>
-  <si>
-    <t>ssShrimp</t>
-  </si>
-  <si>
-    <t>calamari</t>
-  </si>
-  <si>
-    <t>poke</t>
-  </si>
-  <si>
-    <t>bbqShrimp</t>
-  </si>
-  <si>
-    <t>shrimpCocktail</t>
-  </si>
-  <si>
-    <t>halfShell</t>
-  </si>
-  <si>
-    <t>rockefeller</t>
-  </si>
-  <si>
-    <t>charbroiled</t>
-  </si>
-  <si>
-    <t>spinDip</t>
-  </si>
-  <si>
-    <t>crabCake</t>
-  </si>
-  <si>
-    <t>carpaccio</t>
-  </si>
-  <si>
-    <t>charcuterie</t>
-  </si>
-  <si>
-    <t>cheesePlate</t>
-  </si>
-  <si>
-    <t>hotApps</t>
-  </si>
-  <si>
-    <t>chilledApps</t>
-  </si>
-  <si>
-    <t>frenchOnion</t>
-  </si>
-  <si>
-    <t>crabBisque</t>
-  </si>
-  <si>
-    <t>caesarSalad</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>wedge</t>
-  </si>
-  <si>
-    <t>chopped</t>
-  </si>
-  <si>
-    <t>grilledRomaine</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>balsamicVin</t>
-  </si>
-  <si>
-    <t>mapleAppleVin</t>
-  </si>
-  <si>
-    <t>blueCheeseDress</t>
-  </si>
-  <si>
-    <t>creamyHerb</t>
-  </si>
-  <si>
-    <t>caesarDress</t>
-  </si>
-  <si>
-    <t>oilAndVinegar</t>
-  </si>
-  <si>
-    <t>bakedPotato</t>
-  </si>
-  <si>
-    <t>loadedPotato</t>
-  </si>
-  <si>
-    <t>mashedPotatoes</t>
-  </si>
-  <si>
-    <t>lobsterMashed</t>
-  </si>
-  <si>
-    <t>parmesanFries</t>
-  </si>
-  <si>
-    <t>macaroni</t>
-  </si>
-  <si>
-    <t>lobsterMac</t>
-  </si>
-  <si>
-    <t>eddiesPotatoes</t>
-  </si>
-  <si>
-    <t>sweetPotato</t>
-  </si>
-  <si>
-    <t>broccoli</t>
-  </si>
-  <si>
-    <t>tempuraAsp</t>
-  </si>
-  <si>
-    <t>tempuraBeans</t>
-  </si>
-  <si>
-    <t>eddiesBrussels</t>
-  </si>
-  <si>
-    <t>creamedSpinach</t>
-  </si>
-  <si>
-    <t>wildMush</t>
-  </si>
-  <si>
-    <t>filetMignon</t>
-  </si>
-  <si>
-    <t>nyStrip</t>
-  </si>
-  <si>
-    <t>ribeye</t>
-  </si>
-  <si>
-    <t>bourbonRib</t>
-  </si>
-  <si>
-    <t>trio</t>
-  </si>
-  <si>
-    <t>delMar</t>
-  </si>
-  <si>
-    <t>newOrleans</t>
-  </si>
-  <si>
-    <t>bisonFiletMignon</t>
-  </si>
-  <si>
-    <t>bisonBoneIn</t>
-  </si>
-  <si>
-    <t>cheeseburger</t>
-  </si>
-  <si>
-    <t>tarpolyFiletMignon</t>
-  </si>
-  <si>
-    <t>tarpolyRibeye</t>
-  </si>
-  <si>
-    <t>cedarSalmon</t>
-  </si>
-  <si>
-    <t>grilledSalmon</t>
-  </si>
-  <si>
-    <t>blackenedSalmon</t>
-  </si>
-  <si>
-    <t>shimpScallops</t>
-  </si>
-  <si>
-    <t>tunaSteak</t>
-  </si>
-  <si>
-    <t>seaBass</t>
-  </si>
-  <si>
-    <t>lobsterTail</t>
-  </si>
-  <si>
-    <t>crabLegs</t>
-  </si>
-  <si>
-    <t>lemonChicken</t>
-  </si>
-  <si>
-    <t>vegetarian</t>
-  </si>
-  <si>
-    <t>peppercorn</t>
-  </si>
-  <si>
-    <t>maxwell</t>
-  </si>
-  <si>
-    <t>oscar</t>
-  </si>
-  <si>
-    <t>baconShrimp</t>
-  </si>
-  <si>
-    <t>crabShrimpDelMar</t>
-  </si>
-  <si>
-    <t>mixedGrill</t>
-  </si>
-  <si>
-    <t>crabLegsEnhance</t>
-  </si>
-  <si>
-    <t>lobsterTailEnhance</t>
-  </si>
-  <si>
-    <t>bananas</t>
-  </si>
-  <si>
-    <t>brownie</t>
-  </si>
-  <si>
-    <t>carrotCake</t>
-  </si>
-  <si>
-    <t>chocolateCake</t>
-  </si>
-  <si>
-    <t>cremeBrulee</t>
-  </si>
-  <si>
-    <t>pbCup</t>
-  </si>
-  <si>
-    <t>sorbet</t>
-  </si>
-  <si>
-    <t>iceCream</t>
-  </si>
-  <si>
-    <t>kidsChicken</t>
-  </si>
-  <si>
-    <t>kidsMac</t>
-  </si>
-  <si>
-    <t>Dish Name (variable)</t>
-  </si>
-  <si>
     <t>Ingredient 1</t>
   </si>
   <si>
@@ -1389,9 +1122,6 @@
     <t>sriracha sauce</t>
   </si>
   <si>
-    <t>crabCakeEnhance</t>
-  </si>
-  <si>
     <t>king crab corn bisque</t>
   </si>
   <si>
@@ -2011,6 +1741,279 @@
   </si>
   <si>
     <t>1 flamed orange coin</t>
+  </si>
+  <si>
+    <t>Dish Name</t>
+  </si>
+  <si>
+    <t>Charcuterie and Cheese Plate</t>
+  </si>
+  <si>
+    <t>Filet Mignon Potstickers</t>
+  </si>
+  <si>
+    <t>Sweet and Spicy Shrimp</t>
+  </si>
+  <si>
+    <t>Calamari</t>
+  </si>
+  <si>
+    <t>Ahi Tuna Poke</t>
+  </si>
+  <si>
+    <t>Barbecue Shrimp</t>
+  </si>
+  <si>
+    <t>Eddie's Shrimp Cocktail</t>
+  </si>
+  <si>
+    <t>Oysters on the Half Shell</t>
+  </si>
+  <si>
+    <t>Oysters Rockefeller</t>
+  </si>
+  <si>
+    <t>Charbroiled Oysters</t>
+  </si>
+  <si>
+    <t>Spinach and Artichoke Dip</t>
+  </si>
+  <si>
+    <t>Maryland Crab Cake</t>
+  </si>
+  <si>
+    <t>Beef Carpaccio</t>
+  </si>
+  <si>
+    <t>Cheese Plate</t>
+  </si>
+  <si>
+    <t>Hot Appetizer Platter</t>
+  </si>
+  <si>
+    <t>Chilled Appetizer Platter</t>
+  </si>
+  <si>
+    <t>French Onion Soup</t>
+  </si>
+  <si>
+    <t>King Crab and Corn Bisque</t>
+  </si>
+  <si>
+    <t>Caesar Salad</t>
+  </si>
+  <si>
+    <t>Eddie's House Salad</t>
+  </si>
+  <si>
+    <t>Classic Wedge Salad</t>
+  </si>
+  <si>
+    <t>Chopped Salad</t>
+  </si>
+  <si>
+    <t>Grilled Romaine Salad</t>
+  </si>
+  <si>
+    <t>Table Bread</t>
+  </si>
+  <si>
+    <t>Balsamic Vinaigrette</t>
+  </si>
+  <si>
+    <t>Ranch Dressing</t>
+  </si>
+  <si>
+    <t>Maple Apple Cider Vinaigrette</t>
+  </si>
+  <si>
+    <t>Blue Cheese Dressing</t>
+  </si>
+  <si>
+    <t>Creamy Herb Dressing</t>
+  </si>
+  <si>
+    <t>Caesar Dressing</t>
+  </si>
+  <si>
+    <t>Oil and Vinegar</t>
+  </si>
+  <si>
+    <t>Baked Potato</t>
+  </si>
+  <si>
+    <t>Loaded Potato</t>
+  </si>
+  <si>
+    <t>Roasted Garlic Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Roasted Garlic Mashed Potatoes with Lobster</t>
+  </si>
+  <si>
+    <t>Parmesan Truffle Fries</t>
+  </si>
+  <si>
+    <t>Macaroni and Cheese</t>
+  </si>
+  <si>
+    <t>Macaroni and Cheese with Lobster</t>
+  </si>
+  <si>
+    <t>Eddie's Potatoes</t>
+  </si>
+  <si>
+    <t>Sweet Potato Cassarole</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Asparagus Spears</t>
+  </si>
+  <si>
+    <t>Tempura Asparagus</t>
+  </si>
+  <si>
+    <t>Tempura Green Beans</t>
+  </si>
+  <si>
+    <t>Eddie's Brussels Sprouts with Bacon</t>
+  </si>
+  <si>
+    <t>Creamed Spinach with Bacon</t>
+  </si>
+  <si>
+    <t>Wild Mushrooms</t>
+  </si>
+  <si>
+    <t>Filet Mignon</t>
+  </si>
+  <si>
+    <t>Prime New York Strip</t>
+  </si>
+  <si>
+    <t>Prime Ribeye</t>
+  </si>
+  <si>
+    <t>Bourbon Ribeye</t>
+  </si>
+  <si>
+    <t>Trio of Filet Mignon Medalions</t>
+  </si>
+  <si>
+    <t>Filet Del Mar</t>
+  </si>
+  <si>
+    <t>New Orleans Mixed Grill</t>
+  </si>
+  <si>
+    <t>Bison Filet Mignon</t>
+  </si>
+  <si>
+    <t>Bison Bone-in Ribeye</t>
+  </si>
+  <si>
+    <t>Prime Cheeseburger</t>
+  </si>
+  <si>
+    <t>Tarpoly Creek Wagyu MS 9+ Filet Mignon</t>
+  </si>
+  <si>
+    <t>Tarpoly Creek Wagyu MS 7/8+ Ribeye</t>
+  </si>
+  <si>
+    <t>Cedar Plank Roasted Salmon</t>
+  </si>
+  <si>
+    <t>Grilled Salmon</t>
+  </si>
+  <si>
+    <t>Blackened Salmon</t>
+  </si>
+  <si>
+    <t>Mojo Shrimp and Scallops</t>
+  </si>
+  <si>
+    <t>Yellowfin Tuna Steak</t>
+  </si>
+  <si>
+    <t>Sea Bass</t>
+  </si>
+  <si>
+    <t>Galapagos Island Cold Water Lobster Tail</t>
+  </si>
+  <si>
+    <t>Red King Crab Legs</t>
+  </si>
+  <si>
+    <t>Lemon-Dijon Chicken</t>
+  </si>
+  <si>
+    <t>Vegan/Vegetarian Option</t>
+  </si>
+  <si>
+    <t>Hollandaise Sauce</t>
+  </si>
+  <si>
+    <t>Bearnaise Sauce</t>
+  </si>
+  <si>
+    <t>Peppercorn Sauce</t>
+  </si>
+  <si>
+    <t>Creamy Horseradish Sauce</t>
+  </si>
+  <si>
+    <t>Bacon Gargonzola Cheese</t>
+  </si>
+  <si>
+    <t>Maxwell Style</t>
+  </si>
+  <si>
+    <t>Oscar Style</t>
+  </si>
+  <si>
+    <t>Bacon Wrapped Shrimp</t>
+  </si>
+  <si>
+    <t>Crab and Shrimp Del Mar</t>
+  </si>
+  <si>
+    <t>Mixed Grill</t>
+  </si>
+  <si>
+    <t>Cold Water Lobster Tail</t>
+  </si>
+  <si>
+    <t>Bananas Foster</t>
+  </si>
+  <si>
+    <t>Vanilla Cognac Brownie</t>
+  </si>
+  <si>
+    <t>Carrot Cake</t>
+  </si>
+  <si>
+    <t>Triple Chocolate Cake</t>
+  </si>
+  <si>
+    <t>Creme Brulee</t>
+  </si>
+  <si>
+    <t>Peanut Butter Cup</t>
+  </si>
+  <si>
+    <t>Fresh Fruit Sorbet</t>
+  </si>
+  <si>
+    <t>Premium Ice Cream</t>
+  </si>
+  <si>
+    <t>Kid's Chicken Fingers</t>
+  </si>
+  <si>
+    <t>Kid's Macaroni and Cheese</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +2567,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:Q112" totalsRowShown="0">
   <autoFilter ref="A1:Q112" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Dish Name (variable)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Dish Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ingredient 1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ingredient 2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ingredient 3"/>
@@ -2918,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,533 +2946,533 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>353</v>
+        <v>573</v>
       </c>
       <c r="B1" t="s">
-        <v>354</v>
+        <v>265</v>
       </c>
       <c r="C1" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="D1" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="E1" t="s">
-        <v>357</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="G1" t="s">
-        <v>359</v>
+        <v>270</v>
       </c>
       <c r="H1" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="I1" t="s">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="J1" t="s">
-        <v>362</v>
+        <v>273</v>
       </c>
       <c r="K1" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="L1" t="s">
-        <v>364</v>
+        <v>275</v>
       </c>
       <c r="M1" t="s">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="N1" t="s">
-        <v>366</v>
+        <v>277</v>
       </c>
       <c r="O1" t="s">
-        <v>367</v>
+        <v>278</v>
       </c>
       <c r="P1" t="s">
-        <v>368</v>
+        <v>279</v>
       </c>
       <c r="Q1" t="s">
-        <v>462</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>575</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>576</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>577</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>578</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>579</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F6" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>493</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>580</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>581</v>
       </c>
       <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>582</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>583</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>584</v>
       </c>
       <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>64</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
         <v>65</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>66</v>
       </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>585</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>363</v>
       </c>
       <c r="C12" t="s">
-        <v>453</v>
+        <v>364</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>586</v>
       </c>
       <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>81</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>82</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>83</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>338</v>
+      </c>
+      <c r="I13" t="s">
         <v>84</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>85</v>
       </c>
-      <c r="H13" t="s">
-        <v>427</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" t="s">
-        <v>87</v>
-      </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>574</v>
       </c>
       <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" t="s">
-        <v>90</v>
-      </c>
       <c r="E14" t="s">
-        <v>441</v>
+        <v>352</v>
       </c>
       <c r="F14" t="s">
-        <v>442</v>
+        <v>353</v>
       </c>
       <c r="G14" t="s">
-        <v>443</v>
+        <v>354</v>
       </c>
       <c r="H14" t="s">
-        <v>444</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>587</v>
       </c>
       <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>588</v>
       </c>
       <c r="B16" t="s">
-        <v>494</v>
+        <v>404</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>589</v>
       </c>
       <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
         <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>590</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
         <v>101</v>
       </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
         <v>102</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>103</v>
       </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>104</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>105</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>106</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>107</v>
-      </c>
-      <c r="M18" t="s">
-        <v>108</v>
-      </c>
-      <c r="N18" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>591</v>
       </c>
       <c r="B19" t="s">
-        <v>456</v>
+        <v>366</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>286</v>
+        <v>592</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>287</v>
+        <v>593</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -3478,47 +3481,47 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
         <v>121</v>
       </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" t="s">
-        <v>123</v>
-      </c>
       <c r="I21" t="s">
-        <v>457</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>594</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
         <v>124</v>
-      </c>
-      <c r="E22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>595</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -3527,36 +3530,36 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
       <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
         <v>16</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" t="s">
         <v>17</v>
-      </c>
-      <c r="K23" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>596</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -3565,650 +3568,650 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>291</v>
+        <v>597</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
         <v>129</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>130</v>
-      </c>
-      <c r="E25" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>598</v>
       </c>
       <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
         <v>133</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
         <v>134</v>
       </c>
-      <c r="D26" t="s">
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" t="s">
         <v>135</v>
       </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" t="s">
-        <v>73</v>
-      </c>
-      <c r="K26" t="s">
-        <v>137</v>
-      </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>599</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" t="s">
         <v>138</v>
-      </c>
-      <c r="F27" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" t="s">
-        <v>139</v>
-      </c>
-      <c r="I27" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>293</v>
+        <v>600</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>294</v>
+        <v>601</v>
       </c>
       <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" t="s">
         <v>143</v>
       </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" t="s">
         <v>144</v>
       </c>
-      <c r="F29" t="s">
+      <c r="J29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" t="s">
         <v>145</v>
       </c>
-      <c r="G29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" t="s">
-        <v>83</v>
-      </c>
-      <c r="K29" t="s">
-        <v>147</v>
-      </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>295</v>
+        <v>602</v>
       </c>
       <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" t="s">
         <v>148</v>
       </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s">
         <v>149</v>
       </c>
-      <c r="E30" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" t="s">
-        <v>151</v>
-      </c>
       <c r="K30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>296</v>
+        <v>603</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" t="s">
         <v>152</v>
       </c>
-      <c r="D31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="J31" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31" t="s">
+        <v>132</v>
+      </c>
+      <c r="N31" t="s">
         <v>153</v>
       </c>
-      <c r="F31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" t="s">
-        <v>154</v>
-      </c>
-      <c r="J31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K31" t="s">
-        <v>101</v>
-      </c>
-      <c r="L31" t="s">
-        <v>114</v>
-      </c>
-      <c r="M31" t="s">
-        <v>134</v>
-      </c>
-      <c r="N31" t="s">
-        <v>155</v>
-      </c>
       <c r="O31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>297</v>
+        <v>604</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>605</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
         <v>156</v>
       </c>
-      <c r="D33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" t="s">
-        <v>158</v>
-      </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>606</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
         <v>156</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" t="s">
         <v>157</v>
       </c>
-      <c r="E34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" t="s">
-        <v>158</v>
-      </c>
-      <c r="G34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" t="s">
-        <v>151</v>
-      </c>
-      <c r="I34" t="s">
-        <v>159</v>
-      </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>607</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>301</v>
+        <v>608</v>
       </c>
       <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" t="s">
         <v>160</v>
       </c>
-      <c r="C36" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>161</v>
       </c>
-      <c r="F36" t="s">
-        <v>162</v>
-      </c>
-      <c r="G36" t="s">
-        <v>163</v>
-      </c>
       <c r="H36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>302</v>
+        <v>609</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>303</v>
+        <v>610</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
       </c>
       <c r="F38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J38" t="s">
         <v>168</v>
       </c>
-      <c r="G38" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>169</v>
       </c>
-      <c r="J38" t="s">
-        <v>170</v>
-      </c>
-      <c r="K38" t="s">
-        <v>171</v>
-      </c>
       <c r="L38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>611</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
       </c>
       <c r="F39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" t="s">
         <v>168</v>
       </c>
-      <c r="G39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>169</v>
       </c>
-      <c r="J39" t="s">
-        <v>170</v>
-      </c>
-      <c r="K39" t="s">
-        <v>171</v>
-      </c>
       <c r="L39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>612</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>306</v>
+        <v>613</v>
       </c>
       <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" t="s">
         <v>175</v>
-      </c>
-      <c r="C41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" t="s">
-        <v>158</v>
-      </c>
-      <c r="H41" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>307</v>
+        <v>614</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>615</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>308</v>
+        <v>616</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>309</v>
+        <v>617</v>
       </c>
       <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
         <v>180</v>
       </c>
-      <c r="C45" t="s">
-        <v>182</v>
-      </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>310</v>
+        <v>618</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>311</v>
+        <v>619</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -4216,1614 +4219,1614 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>312</v>
+        <v>620</v>
       </c>
       <c r="B48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" t="s">
         <v>187</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>188</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>189</v>
       </c>
-      <c r="E48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" t="s">
-        <v>191</v>
-      </c>
       <c r="G48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>313</v>
+        <v>621</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>314</v>
+        <v>622</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>315</v>
+        <v>623</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>624</v>
       </c>
       <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" t="s">
         <v>193</v>
       </c>
-      <c r="C52" t="s">
+      <c r="F52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s">
         <v>194</v>
       </c>
-      <c r="D52" t="s">
-        <v>176</v>
-      </c>
-      <c r="E52" t="s">
-        <v>195</v>
-      </c>
-      <c r="F52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" t="s">
-        <v>196</v>
-      </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>317</v>
+        <v>625</v>
       </c>
       <c r="B53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" t="s">
         <v>197</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>198</v>
       </c>
-      <c r="D53" t="s">
-        <v>199</v>
-      </c>
-      <c r="E53" t="s">
-        <v>200</v>
-      </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>318</v>
+        <v>626</v>
       </c>
       <c r="B54" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" t="s">
         <v>201</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>202</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>203</v>
-      </c>
-      <c r="E54" t="s">
-        <v>204</v>
-      </c>
-      <c r="F54" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>319</v>
+        <v>627</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" t="s">
+        <v>205</v>
+      </c>
+      <c r="E55" t="s">
         <v>206</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s">
         <v>207</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>208</v>
       </c>
-      <c r="F55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" t="s">
-        <v>209</v>
-      </c>
-      <c r="H55" t="s">
-        <v>210</v>
-      </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>320</v>
+        <v>628</v>
       </c>
       <c r="B56" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>321</v>
+        <v>629</v>
       </c>
       <c r="B57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>322</v>
+        <v>630</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D58" t="s">
-        <v>440</v>
+        <v>351</v>
       </c>
       <c r="E58" t="s">
-        <v>439</v>
+        <v>350</v>
       </c>
       <c r="F58" t="s">
-        <v>438</v>
+        <v>349</v>
       </c>
       <c r="G58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H58" t="s">
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K58" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L58" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="M58" t="s">
-        <v>415</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>323</v>
+        <v>631</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>324</v>
+        <v>632</v>
       </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>325</v>
+        <v>633</v>
       </c>
       <c r="B61" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
         <v>219</v>
       </c>
-      <c r="C61" t="s">
+      <c r="F61" t="s">
         <v>220</v>
-      </c>
-      <c r="D61" t="s">
-        <v>57</v>
-      </c>
-      <c r="E61" t="s">
-        <v>221</v>
-      </c>
-      <c r="F61" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>326</v>
+        <v>634</v>
       </c>
       <c r="B62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" t="s">
         <v>219</v>
       </c>
-      <c r="C62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" t="s">
-        <v>221</v>
-      </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>327</v>
+        <v>635</v>
       </c>
       <c r="B63" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" t="s">
         <v>219</v>
       </c>
-      <c r="C63" t="s">
-        <v>223</v>
-      </c>
-      <c r="D63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" t="s">
-        <v>221</v>
-      </c>
       <c r="F63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>328</v>
+        <v>636</v>
       </c>
       <c r="B64" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" t="s">
         <v>224</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>225</v>
       </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>226</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>227</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>228</v>
       </c>
-      <c r="G64" t="s">
-        <v>229</v>
-      </c>
-      <c r="H64" t="s">
-        <v>230</v>
-      </c>
       <c r="I64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>329</v>
+        <v>637</v>
       </c>
       <c r="B65" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" t="s">
         <v>231</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>232</v>
       </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
         <v>233</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>234</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>235</v>
-      </c>
-      <c r="G65" t="s">
-        <v>236</v>
-      </c>
-      <c r="H65" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>330</v>
+        <v>638</v>
       </c>
       <c r="B66" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" t="s">
         <v>238</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>239</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>240</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
         <v>241</v>
       </c>
-      <c r="F66" t="s">
-        <v>242</v>
-      </c>
-      <c r="G66" t="s">
-        <v>243</v>
-      </c>
       <c r="H66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>331</v>
+        <v>639</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>332</v>
+        <v>640</v>
       </c>
       <c r="B68" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>333</v>
+        <v>641</v>
       </c>
       <c r="B69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" t="s">
         <v>247</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" t="s">
         <v>248</v>
       </c>
-      <c r="D69" t="s">
+      <c r="G69" t="s">
+        <v>208</v>
+      </c>
+      <c r="H69" t="s">
         <v>249</v>
       </c>
-      <c r="E69" t="s">
-        <v>115</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="I69" t="s">
         <v>250</v>
       </c>
-      <c r="G69" t="s">
-        <v>210</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="J69" t="s">
         <v>251</v>
-      </c>
-      <c r="I69" t="s">
-        <v>252</v>
-      </c>
-      <c r="J69" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>334</v>
+        <v>642</v>
       </c>
       <c r="B70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
         <v>254</v>
       </c>
-      <c r="C70" t="s">
+      <c r="F70" t="s">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s">
+        <v>231</v>
+      </c>
+      <c r="I70" t="s">
+        <v>232</v>
+      </c>
+      <c r="J70" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" t="s">
         <v>255</v>
       </c>
-      <c r="D70" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="L70" t="s">
         <v>256</v>
       </c>
-      <c r="F70" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" t="s">
-        <v>84</v>
-      </c>
-      <c r="H70" t="s">
-        <v>233</v>
-      </c>
-      <c r="I70" t="s">
-        <v>234</v>
-      </c>
-      <c r="J70" t="s">
-        <v>26</v>
-      </c>
-      <c r="K70" t="s">
-        <v>257</v>
-      </c>
-      <c r="L70" t="s">
-        <v>258</v>
-      </c>
       <c r="M70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>260</v>
+        <v>643</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F71" t="s">
+        <v>112</v>
+      </c>
+      <c r="G71" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s">
         <v>114</v>
-      </c>
-      <c r="G71" t="s">
-        <v>83</v>
-      </c>
-      <c r="H71" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>267</v>
+        <v>644</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>335</v>
+        <v>645</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D73" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>646</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G74" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I74" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J74" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>647</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E75" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>336</v>
+        <v>648</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D76" t="s">
-        <v>370</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>337</v>
+        <v>649</v>
       </c>
       <c r="B77" t="s">
-        <v>369</v>
+        <v>280</v>
       </c>
       <c r="C77" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s">
-        <v>370</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>338</v>
+        <v>650</v>
       </c>
       <c r="B78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" t="s">
+        <v>403</v>
+      </c>
+      <c r="F78" t="s">
         <v>43</v>
-      </c>
-      <c r="C78" t="s">
-        <v>44</v>
-      </c>
-      <c r="D78" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" t="s">
-        <v>493</v>
-      </c>
-      <c r="F78" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>339</v>
+        <v>651</v>
       </c>
       <c r="B79" t="s">
-        <v>371</v>
+        <v>282</v>
       </c>
       <c r="C79" t="s">
-        <v>372</v>
+        <v>283</v>
       </c>
       <c r="D79" t="s">
-        <v>459</v>
+        <v>369</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>340</v>
+        <v>652</v>
       </c>
       <c r="B80" t="s">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D80" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>455</v>
+        <v>585</v>
       </c>
       <c r="B81" t="s">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="C81" t="s">
-        <v>375</v>
+        <v>286</v>
       </c>
       <c r="D81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>341</v>
+        <v>640</v>
       </c>
       <c r="B82" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>342</v>
+        <v>653</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>343</v>
+        <v>654</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D84" t="s">
-        <v>376</v>
+        <v>287</v>
       </c>
       <c r="E84" t="s">
-        <v>377</v>
+        <v>288</v>
       </c>
       <c r="F84" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="G84" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="H84" t="s">
-        <v>380</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>344</v>
+        <v>655</v>
       </c>
       <c r="B85" t="s">
-        <v>380</v>
+        <v>291</v>
       </c>
       <c r="C85" t="s">
-        <v>381</v>
+        <v>292</v>
       </c>
       <c r="D85" t="s">
-        <v>382</v>
+        <v>293</v>
       </c>
       <c r="E85" t="s">
-        <v>492</v>
+        <v>402</v>
       </c>
       <c r="F85" t="s">
-        <v>383</v>
+        <v>294</v>
       </c>
       <c r="G85" t="s">
-        <v>384</v>
+        <v>295</v>
       </c>
       <c r="H85" t="s">
-        <v>385</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>345</v>
+        <v>656</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C86" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="D86" t="s">
-        <v>387</v>
+        <v>298</v>
       </c>
       <c r="E86" t="s">
-        <v>388</v>
+        <v>299</v>
       </c>
       <c r="F86" t="s">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="G86" t="s">
-        <v>390</v>
+        <v>301</v>
       </c>
       <c r="H86" t="s">
-        <v>391</v>
+        <v>302</v>
       </c>
       <c r="I86" t="s">
-        <v>392</v>
+        <v>303</v>
       </c>
       <c r="J86" t="s">
-        <v>393</v>
+        <v>304</v>
       </c>
       <c r="K86" t="s">
-        <v>394</v>
+        <v>305</v>
       </c>
       <c r="L86" t="s">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="M86" t="s">
-        <v>396</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>657</v>
       </c>
       <c r="B87" t="s">
-        <v>386</v>
+        <v>297</v>
       </c>
       <c r="C87" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="D87" t="s">
-        <v>398</v>
+        <v>309</v>
       </c>
       <c r="E87" t="s">
-        <v>399</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>347</v>
+        <v>658</v>
       </c>
       <c r="B88" t="s">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="C88" t="s">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="D88" t="s">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="E88" t="s">
-        <v>385</v>
+        <v>296</v>
       </c>
       <c r="F88" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>348</v>
+        <v>659</v>
       </c>
       <c r="B89" t="s">
-        <v>404</v>
+        <v>315</v>
       </c>
       <c r="C89" t="s">
-        <v>405</v>
+        <v>316</v>
       </c>
       <c r="D89" t="s">
-        <v>406</v>
+        <v>317</v>
       </c>
       <c r="E89" t="s">
-        <v>407</v>
+        <v>318</v>
       </c>
       <c r="F89" t="s">
-        <v>394</v>
+        <v>305</v>
       </c>
       <c r="G89" t="s">
-        <v>398</v>
+        <v>309</v>
       </c>
       <c r="H89" t="s">
-        <v>408</v>
+        <v>319</v>
       </c>
       <c r="I89" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>349</v>
+        <v>660</v>
       </c>
       <c r="B90" t="s">
-        <v>409</v>
+        <v>320</v>
       </c>
       <c r="C90" t="s">
-        <v>396</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>350</v>
+        <v>661</v>
       </c>
       <c r="B91" t="s">
-        <v>410</v>
+        <v>321</v>
       </c>
       <c r="C91" t="s">
-        <v>396</v>
+        <v>307</v>
       </c>
       <c r="D91" t="s">
-        <v>398</v>
+        <v>309</v>
       </c>
       <c r="E91" t="s">
-        <v>383</v>
+        <v>294</v>
       </c>
       <c r="F91" t="s">
-        <v>394</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>351</v>
+        <v>662</v>
       </c>
       <c r="B92" t="s">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="C92" t="s">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="D92" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="E92" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="F92" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="G92" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="H92" t="s">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="I92" t="s">
-        <v>420</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>352</v>
+        <v>663</v>
       </c>
       <c r="B93" t="s">
-        <v>422</v>
+        <v>333</v>
       </c>
       <c r="C93" t="s">
-        <v>421</v>
+        <v>332</v>
       </c>
       <c r="D93" t="s">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="E93" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="F93" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="G93" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="H93" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="I93" t="s">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="J93" t="s">
-        <v>420</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>411</v>
+        <v>322</v>
       </c>
       <c r="B94" t="s">
-        <v>423</v>
+        <v>334</v>
       </c>
       <c r="C94" t="s">
-        <v>424</v>
+        <v>335</v>
       </c>
       <c r="D94" t="s">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="E94" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="F94" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="G94" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="H94" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="I94" t="s">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="J94" t="s">
-        <v>420</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>412</v>
+        <v>323</v>
       </c>
       <c r="B95" t="s">
-        <v>425</v>
+        <v>336</v>
       </c>
       <c r="C95" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D95" t="s">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="E95" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="F95" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="G95" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="H95" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="I95" t="s">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="J95" t="s">
-        <v>420</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>413</v>
+        <v>324</v>
       </c>
       <c r="B96" t="s">
-        <v>426</v>
+        <v>337</v>
       </c>
       <c r="C96" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D96" t="s">
-        <v>415</v>
+        <v>326</v>
       </c>
       <c r="E96" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="F96" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="G96" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="H96" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="I96" t="s">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="J96" t="s">
-        <v>420</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>428</v>
+        <v>339</v>
       </c>
       <c r="B97" t="s">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="C97" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D97" t="s">
-        <v>430</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>431</v>
+        <v>342</v>
       </c>
       <c r="B98" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" t="s">
+        <v>69</v>
+      </c>
+      <c r="D98" t="s">
         <v>70</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E98" t="s">
         <v>71</v>
       </c>
-      <c r="D98" t="s">
+      <c r="F98" t="s">
+        <v>43</v>
+      </c>
+      <c r="G98" t="s">
         <v>72</v>
       </c>
-      <c r="E98" t="s">
+      <c r="H98" t="s">
+        <v>65</v>
+      </c>
+      <c r="I98" t="s">
         <v>73</v>
       </c>
-      <c r="F98" t="s">
-        <v>45</v>
-      </c>
-      <c r="G98" t="s">
-        <v>74</v>
-      </c>
-      <c r="H98" t="s">
-        <v>67</v>
-      </c>
-      <c r="I98" t="s">
-        <v>75</v>
-      </c>
       <c r="J98" t="s">
-        <v>369</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>432</v>
+        <v>343</v>
       </c>
       <c r="B99" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
         <v>76</v>
-      </c>
-      <c r="C99" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" t="s">
-        <v>77</v>
-      </c>
-      <c r="E99" t="s">
-        <v>45</v>
-      </c>
-      <c r="F99" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>433</v>
+        <v>344</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G100" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H100" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I100" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J100" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K100" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L100" t="s">
-        <v>454</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>434</v>
+        <v>345</v>
       </c>
       <c r="B101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" t="s">
+        <v>74</v>
+      </c>
+      <c r="E101" t="s">
+        <v>63</v>
+      </c>
+      <c r="F101" t="s">
         <v>110</v>
       </c>
-      <c r="C101" t="s">
+      <c r="G101" t="s">
         <v>111</v>
       </c>
-      <c r="D101" t="s">
-        <v>76</v>
-      </c>
-      <c r="E101" t="s">
-        <v>65</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="H101" t="s">
         <v>112</v>
       </c>
-      <c r="G101" t="s">
+      <c r="I101" t="s">
         <v>113</v>
       </c>
-      <c r="H101" t="s">
+      <c r="J101" t="s">
+        <v>81</v>
+      </c>
+      <c r="K101" t="s">
         <v>114</v>
-      </c>
-      <c r="I101" t="s">
-        <v>115</v>
-      </c>
-      <c r="J101" t="s">
-        <v>83</v>
-      </c>
-      <c r="K101" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>435</v>
+        <v>346</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E102" t="s">
-        <v>458</v>
+        <v>368</v>
       </c>
       <c r="F102" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
       <c r="B103" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C103" t="s">
-        <v>459</v>
+        <v>369</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>437</v>
+        <v>348</v>
       </c>
       <c r="B104" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E104" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F104" t="s">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="G104" t="s">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="H104" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I104" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K104" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L104" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N104" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O104" t="s">
-        <v>463</v>
+        <v>373</v>
       </c>
       <c r="P104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>445</v>
+        <v>356</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C105" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="D105" t="s">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F105" t="s">
-        <v>466</v>
+        <v>376</v>
       </c>
       <c r="G105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H105" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J105" t="s">
-        <v>467</v>
+        <v>377</v>
       </c>
       <c r="K105" t="s">
-        <v>468</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>446</v>
+        <v>357</v>
       </c>
       <c r="B106" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s">
-        <v>486</v>
+        <v>396</v>
       </c>
       <c r="E106" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>487</v>
+        <v>397</v>
       </c>
       <c r="H106" t="s">
-        <v>488</v>
+        <v>398</v>
       </c>
       <c r="I106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J106" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>447</v>
+        <v>358</v>
       </c>
       <c r="B107" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C107" t="s">
-        <v>469</v>
+        <v>379</v>
       </c>
       <c r="D107" t="s">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="E107" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" t="s">
+        <v>247</v>
+      </c>
+      <c r="G107" t="s">
         <v>29</v>
       </c>
-      <c r="F107" t="s">
-        <v>249</v>
-      </c>
-      <c r="G107" t="s">
-        <v>31</v>
-      </c>
       <c r="H107" t="s">
-        <v>471</v>
+        <v>381</v>
       </c>
       <c r="I107" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J107" t="s">
-        <v>472</v>
+        <v>382</v>
       </c>
       <c r="K107" t="s">
-        <v>473</v>
+        <v>383</v>
       </c>
       <c r="L107" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M107" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N107" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>448</v>
+        <v>359</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" t="s">
+        <v>384</v>
+      </c>
+      <c r="E108" t="s">
+        <v>385</v>
+      </c>
+      <c r="F108" t="s">
+        <v>386</v>
+      </c>
+      <c r="G108" t="s">
         <v>29</v>
       </c>
-      <c r="D108" t="s">
-        <v>474</v>
-      </c>
-      <c r="E108" t="s">
-        <v>475</v>
-      </c>
-      <c r="F108" t="s">
-        <v>476</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
       <c r="H108" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="I108" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J108" t="s">
-        <v>471</v>
+        <v>381</v>
       </c>
       <c r="K108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L108" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M108" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>449</v>
+        <v>360</v>
       </c>
       <c r="B109" t="s">
-        <v>477</v>
+        <v>387</v>
       </c>
       <c r="C109" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
       <c r="D109" t="s">
-        <v>474</v>
+        <v>384</v>
       </c>
       <c r="E109" t="s">
-        <v>479</v>
+        <v>389</v>
       </c>
       <c r="F109" t="s">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="G109" t="s">
-        <v>481</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>450</v>
+        <v>361</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C110" t="s">
-        <v>482</v>
+        <v>392</v>
       </c>
       <c r="D110" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E110" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>451</v>
+        <v>362</v>
       </c>
       <c r="B111" t="s">
-        <v>483</v>
+        <v>393</v>
       </c>
       <c r="C111" t="s">
-        <v>484</v>
+        <v>394</v>
       </c>
       <c r="D111" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>485</v>
+        <v>395</v>
       </c>
       <c r="B112" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="C112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D112" t="s">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="E112" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F112" t="s">
+        <v>133</v>
+      </c>
+      <c r="G112" t="s">
+        <v>129</v>
+      </c>
+      <c r="H112" t="s">
         <v>135</v>
       </c>
-      <c r="G112" t="s">
-        <v>131</v>
-      </c>
-      <c r="H112" t="s">
-        <v>137</v>
-      </c>
       <c r="I112" t="s">
-        <v>491</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -5848,21 +5851,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="B1" t="s">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="C1" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="D1" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>421</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -5870,7 +5873,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>414</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -5878,15 +5881,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -5894,7 +5897,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>501</v>
+        <v>411</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -5910,15 +5913,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
-        <v>549</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -5926,15 +5929,15 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>548</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
-        <v>550</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>409</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -5942,7 +5945,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>498</v>
+        <v>408</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -5950,7 +5953,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>497</v>
+        <v>407</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -5958,7 +5961,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>496</v>
+        <v>406</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -5966,7 +5969,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>495</v>
+        <v>405</v>
       </c>
       <c r="B15">
         <v>2.5</v>
@@ -5974,7 +5977,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -5982,7 +5985,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>505</v>
+        <v>415</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -5990,7 +5993,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>506</v>
+        <v>416</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -5998,7 +6001,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>507</v>
+        <v>417</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -6006,7 +6009,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>508</v>
+        <v>418</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -6014,7 +6017,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>509</v>
+        <v>419</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -6022,7 +6025,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -6030,7 +6033,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>513</v>
+        <v>423</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -6038,7 +6041,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>514</v>
+        <v>424</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -6046,7 +6049,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>515</v>
+        <v>425</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -6054,7 +6057,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>516</v>
+        <v>426</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -6062,7 +6065,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -6070,7 +6073,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -6078,7 +6081,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>536</v>
+        <v>446</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -6086,7 +6089,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>535</v>
+        <v>445</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -6094,7 +6097,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>519</v>
+        <v>429</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -6102,7 +6105,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -6110,7 +6113,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>521</v>
+        <v>431</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -6118,7 +6121,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>522</v>
+        <v>432</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -6132,7 +6135,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>523</v>
+        <v>433</v>
       </c>
       <c r="B35">
         <v>12</v>
@@ -6143,7 +6146,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>524</v>
+        <v>434</v>
       </c>
       <c r="B36">
         <v>16</v>
@@ -6151,7 +6154,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>525</v>
+        <v>435</v>
       </c>
       <c r="B37">
         <v>16</v>
@@ -6159,7 +6162,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>527</v>
+        <v>437</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -6175,7 +6178,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>528</v>
+        <v>438</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -6183,7 +6186,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>529</v>
+        <v>439</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -6191,15 +6194,15 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>530</v>
+        <v>440</v>
       </c>
       <c r="B42" t="s">
-        <v>531</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -6207,7 +6210,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>533</v>
+        <v>443</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -6218,7 +6221,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="B45">
         <v>16</v>
@@ -6226,7 +6229,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>537</v>
+        <v>447</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -6234,7 +6237,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>538</v>
+        <v>448</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -6242,7 +6245,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>539</v>
+        <v>449</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -6250,7 +6253,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -6258,7 +6261,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>541</v>
+        <v>451</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -6266,23 +6269,23 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>542</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s">
-        <v>543</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>544</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s">
-        <v>545</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -6290,7 +6293,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>552</v>
+        <v>462</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -6298,7 +6301,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>553</v>
+        <v>463</v>
       </c>
       <c r="B55">
         <v>9</v>
@@ -6309,7 +6312,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="B56">
         <v>16</v>
@@ -6320,7 +6323,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>554</v>
+        <v>464</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -6328,7 +6331,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>555</v>
+        <v>465</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -6336,7 +6339,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>556</v>
+        <v>466</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -6344,7 +6347,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>557</v>
+        <v>467</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -6352,7 +6355,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>558</v>
+        <v>468</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -6360,7 +6363,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>559</v>
+        <v>469</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -6368,7 +6371,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>560</v>
+        <v>470</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -6376,7 +6379,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -6384,23 +6387,23 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>563</v>
+        <v>473</v>
       </c>
       <c r="B65" t="s">
-        <v>549</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="B66" t="s">
-        <v>565</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>566</v>
+        <v>476</v>
       </c>
       <c r="B67">
         <v>4</v>
@@ -6408,7 +6411,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>567</v>
+        <v>477</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -6416,7 +6419,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>569</v>
+        <v>479</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -6424,15 +6427,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s">
-        <v>565</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -6440,7 +6443,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>571</v>
+        <v>481</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -6458,7 +6461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E1FEB5-A9E2-435C-A83B-9237E8992AB2}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -6477,378 +6480,378 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="B1" t="s">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="C1" t="s">
-        <v>354</v>
+        <v>265</v>
       </c>
       <c r="D1" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="E1" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>357</v>
+        <v>268</v>
       </c>
       <c r="G1" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="H1" t="s">
-        <v>359</v>
+        <v>270</v>
       </c>
       <c r="I1" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="J1" t="s">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="K1" t="s">
-        <v>362</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
       <c r="B2" t="s">
-        <v>592</v>
+        <v>502</v>
       </c>
       <c r="C2" t="s">
-        <v>596</v>
+        <v>506</v>
       </c>
       <c r="D2" t="s">
-        <v>597</v>
+        <v>507</v>
       </c>
       <c r="E2" t="s">
-        <v>598</v>
+        <v>508</v>
       </c>
       <c r="F2" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
       <c r="G2" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="H2" t="s">
-        <v>601</v>
+        <v>511</v>
       </c>
       <c r="I2" t="s">
-        <v>602</v>
+        <v>512</v>
       </c>
       <c r="J2" t="s">
-        <v>603</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="C3" t="s">
-        <v>604</v>
+        <v>514</v>
       </c>
       <c r="D3" t="s">
-        <v>605</v>
+        <v>515</v>
       </c>
       <c r="E3" t="s">
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="F3" t="s">
-        <v>607</v>
+        <v>517</v>
       </c>
       <c r="G3" t="s">
-        <v>609</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>504</v>
       </c>
       <c r="C4" t="s">
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="D4" t="s">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="E4" t="s">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="F4" t="s">
-        <v>612</v>
+        <v>522</v>
       </c>
       <c r="G4" t="s">
-        <v>613</v>
+        <v>523</v>
       </c>
       <c r="H4" t="s">
-        <v>614</v>
+        <v>524</v>
       </c>
       <c r="I4" t="s">
-        <v>615</v>
+        <v>525</v>
       </c>
       <c r="J4" t="s">
-        <v>609</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="B5" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="C5" t="s">
-        <v>661</v>
+        <v>571</v>
       </c>
       <c r="D5" t="s">
-        <v>616</v>
+        <v>526</v>
       </c>
       <c r="E5" t="s">
-        <v>617</v>
+        <v>527</v>
       </c>
       <c r="F5" t="s">
-        <v>662</v>
+        <v>572</v>
       </c>
       <c r="G5" t="s">
-        <v>618</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>582</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="C6" t="s">
-        <v>619</v>
+        <v>529</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="E6" t="s">
-        <v>621</v>
+        <v>531</v>
       </c>
       <c r="F6" t="s">
-        <v>622</v>
+        <v>532</v>
       </c>
       <c r="G6" t="s">
-        <v>623</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="B7" t="s">
-        <v>592</v>
+        <v>502</v>
       </c>
       <c r="C7" t="s">
-        <v>625</v>
+        <v>535</v>
       </c>
       <c r="D7" t="s">
-        <v>624</v>
+        <v>534</v>
       </c>
       <c r="E7" t="s">
-        <v>626</v>
+        <v>536</v>
       </c>
       <c r="F7" t="s">
-        <v>627</v>
+        <v>537</v>
       </c>
       <c r="G7" t="s">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="H7" t="s">
-        <v>628</v>
+        <v>538</v>
       </c>
       <c r="I7" t="s">
-        <v>629</v>
+        <v>539</v>
       </c>
       <c r="J7" t="s">
-        <v>630</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>584</v>
+        <v>494</v>
       </c>
       <c r="B8" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="C8" t="s">
-        <v>631</v>
+        <v>541</v>
       </c>
       <c r="D8" t="s">
-        <v>632</v>
+        <v>542</v>
       </c>
       <c r="E8" t="s">
-        <v>633</v>
+        <v>543</v>
       </c>
       <c r="F8" t="s">
-        <v>634</v>
+        <v>544</v>
       </c>
       <c r="G8" t="s">
-        <v>618</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="B9" t="s">
-        <v>592</v>
+        <v>502</v>
       </c>
       <c r="C9" t="s">
-        <v>635</v>
+        <v>545</v>
       </c>
       <c r="D9" t="s">
-        <v>633</v>
+        <v>543</v>
       </c>
       <c r="E9" t="s">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
+        <v>546</v>
       </c>
       <c r="G9" t="s">
-        <v>637</v>
+        <v>547</v>
       </c>
       <c r="H9" t="s">
-        <v>638</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>586</v>
+        <v>496</v>
       </c>
       <c r="B10" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="C10" t="s">
-        <v>648</v>
+        <v>558</v>
       </c>
       <c r="D10" t="s">
-        <v>644</v>
+        <v>554</v>
       </c>
       <c r="E10" t="s">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="F10" t="s">
-        <v>645</v>
+        <v>555</v>
       </c>
       <c r="G10" t="s">
-        <v>647</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>587</v>
+        <v>497</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="C11" t="s">
-        <v>639</v>
+        <v>549</v>
       </c>
       <c r="D11" t="s">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>546</v>
       </c>
       <c r="F11" t="s">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="G11" t="s">
-        <v>623</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>588</v>
+        <v>498</v>
       </c>
       <c r="B12" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="C12" t="s">
-        <v>641</v>
+        <v>551</v>
       </c>
       <c r="D12" t="s">
-        <v>642</v>
+        <v>552</v>
       </c>
       <c r="E12" t="s">
-        <v>643</v>
+        <v>553</v>
       </c>
       <c r="F12" t="s">
-        <v>621</v>
+        <v>531</v>
       </c>
       <c r="G12" t="s">
-        <v>623</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>589</v>
+        <v>499</v>
       </c>
       <c r="B13" t="s">
-        <v>595</v>
+        <v>505</v>
       </c>
       <c r="C13" t="s">
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="D13" t="s">
-        <v>650</v>
+        <v>560</v>
       </c>
       <c r="E13" t="s">
-        <v>651</v>
+        <v>561</v>
       </c>
       <c r="F13" t="s">
-        <v>652</v>
+        <v>562</v>
       </c>
       <c r="G13" t="s">
-        <v>653</v>
+        <v>563</v>
       </c>
       <c r="H13" t="s">
-        <v>654</v>
+        <v>564</v>
       </c>
       <c r="I13" t="s">
-        <v>655</v>
+        <v>565</v>
       </c>
       <c r="J13" t="s">
-        <v>656</v>
+        <v>566</v>
       </c>
       <c r="K13" t="s">
-        <v>618</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>590</v>
+        <v>500</v>
       </c>
       <c r="B14" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="C14" t="s">
-        <v>658</v>
+        <v>568</v>
       </c>
       <c r="D14" t="s">
-        <v>659</v>
+        <v>569</v>
       </c>
       <c r="E14" t="s">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="F14" t="s">
-        <v>657</v>
+        <v>567</v>
       </c>
       <c r="G14" t="s">
-        <v>618</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
